--- a/biology/Zoologie/Chaetodon_sanctaehelenae/Chaetodon_sanctaehelenae.xlsx
+++ b/biology/Zoologie/Chaetodon_sanctaehelenae/Chaetodon_sanctaehelenae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetodon sanctaehelenae est une espèce de poissons de la famille des Chaetodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans le pays suivantUICN  (ref)[1] : Sainte-Hélène, Ascension et Tristan da Cunha.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans le pays suivantUICN  (ref) : Sainte-Hélène, Ascension et Tristan da Cunha.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Chaetodon sanctaehelenae Günther, 1868[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Poisson-papillon de Sainte-Hélène[2].
-Chaetodon sanctaehelenae a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Chaetodon sanctaehelenae Günther, 1868.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Poisson-papillon de Sainte-Hélène.
+Chaetodon sanctaehelenae a pour synonymes :
 Chaetodon sanctae subsp. helenae Günther, 1868
 Chaetodon sanctaehelena subsp. uniformis Ahl, 1923
 Chaetodon sanctaehelena Günther, 1868
